--- a/data/trans_orig/P0801-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>474341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>455260</v>
+        <v>452734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>492158</v>
+        <v>492326</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8120321931179953</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7793659980267427</v>
+        <v>0.7750421484190275</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8425328392357434</v>
+        <v>0.8428197407324075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>613</v>
@@ -765,19 +765,19 @@
         <v>638371</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>608004</v>
+        <v>610614</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>666424</v>
+        <v>667804</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6921259737807066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.659201741446403</v>
+        <v>0.66203206168289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7225411591728201</v>
+        <v>0.7240383416174493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1074</v>
@@ -786,19 +786,19 @@
         <v>1112712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1076297</v>
+        <v>1079121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1147927</v>
+        <v>1146545</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7386200802589256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7144480098612862</v>
+        <v>0.7163224129970097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7619958392492183</v>
+        <v>0.761078793987053</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>69747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54874</v>
+        <v>53797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85328</v>
+        <v>86098</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.119401282964511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09393894098190445</v>
+        <v>0.0920963303500064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1460737565302613</v>
+        <v>0.1473927006736721</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -836,19 +836,19 @@
         <v>189942</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165405</v>
+        <v>165660</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213727</v>
+        <v>215609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2059362141092357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1793337949172235</v>
+        <v>0.1796099373851386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2317246900443974</v>
+        <v>0.233764471352661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -857,19 +857,19 @@
         <v>259689</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>230385</v>
+        <v>230601</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292196</v>
+        <v>288911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1723819554146913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1529302077896322</v>
+        <v>0.1530733291008552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1939604993324174</v>
+        <v>0.1917795580542003</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>40053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29308</v>
+        <v>29083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53632</v>
+        <v>52448</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0685665239174936</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05017331297844643</v>
+        <v>0.04978720686508718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09181411973304252</v>
+        <v>0.08978629566504391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -907,19 +907,19 @@
         <v>94021</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>75735</v>
+        <v>75733</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113604</v>
+        <v>113433</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1019378121100576</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08211209532767785</v>
+        <v>0.08211077058863565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1231704885770509</v>
+        <v>0.1229849293332148</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>132</v>
@@ -928,19 +928,19 @@
         <v>134073</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112916</v>
+        <v>113395</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>155578</v>
+        <v>158298</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08899796432638316</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07495394496256354</v>
+        <v>0.07527180034247954</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1032729193049959</v>
+        <v>0.1050783743548534</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>956151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>934201</v>
+        <v>934142</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>975033</v>
+        <v>975413</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8870548133280276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8666913514424696</v>
+        <v>0.8666359649902674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9045720721888066</v>
+        <v>0.9049250158299702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>824</v>
@@ -1053,19 +1053,19 @@
         <v>844732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>819026</v>
+        <v>817251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>868886</v>
+        <v>867826</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7987718844028453</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7744648587706611</v>
+        <v>0.7727868305938429</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8216118221907072</v>
+        <v>0.8206096008199482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1753</v>
@@ -1074,19 +1074,19 @@
         <v>1800883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1766212</v>
+        <v>1766630</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1834898</v>
+        <v>1833733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8433341278621803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8270981342052209</v>
+        <v>0.8272939313409109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8592632249094184</v>
+        <v>0.8587174433680809</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>97577</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80364</v>
+        <v>80502</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116670</v>
+        <v>116905</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09052592008032549</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07455624615956577</v>
+        <v>0.07468439116470503</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1082384955563445</v>
+        <v>0.108456481010841</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>170</v>
@@ -1124,19 +1124,19 @@
         <v>176414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>153351</v>
+        <v>152457</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>200031</v>
+        <v>199611</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1668156362966019</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1450076716431366</v>
+        <v>0.1441618955006029</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1891475597473607</v>
+        <v>0.1887503778447074</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>271</v>
@@ -1145,19 +1145,19 @@
         <v>273991</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>242082</v>
+        <v>242736</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>304786</v>
+        <v>304238</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1283071619079191</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1133644660862941</v>
+        <v>0.1136704886262433</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1427279645739416</v>
+        <v>0.1424712973226668</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>24166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16282</v>
+        <v>16486</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34871</v>
+        <v>35865</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02241926659164693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01510569846544649</v>
+        <v>0.0152943281327942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03235120035885682</v>
+        <v>0.03327353486126348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1195,19 +1195,19 @@
         <v>36393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25753</v>
+        <v>26432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49774</v>
+        <v>48947</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03441247930055279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02435196199863329</v>
+        <v>0.02499351452451467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04706606050334607</v>
+        <v>0.04628360449261926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1216,19 +1216,19 @@
         <v>60558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47156</v>
+        <v>47604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78085</v>
+        <v>77185</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0283587102299006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02208279443604429</v>
+        <v>0.02229234945214457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03656618816684173</v>
+        <v>0.03614475646290929</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>1027008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1006764</v>
+        <v>1008323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1043392</v>
+        <v>1044480</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9156681127520713</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8976186022774574</v>
+        <v>0.8990085737969755</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9302761201715591</v>
+        <v>0.9312462677387506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>819</v>
@@ -1341,19 +1341,19 @@
         <v>826088</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>801123</v>
+        <v>803662</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>848352</v>
+        <v>847734</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8311242132402765</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8060070363022979</v>
+        <v>0.8085618486007398</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8535240288268451</v>
+        <v>0.8529028863228749</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1825</v>
@@ -1362,19 +1362,19 @@
         <v>1853095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1823227</v>
+        <v>1825121</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1884405</v>
+        <v>1883011</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8759469195149177</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8618284229707834</v>
+        <v>0.8627236104253531</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8907467222341765</v>
+        <v>0.8900878776118771</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>73986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59902</v>
+        <v>58706</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91900</v>
+        <v>90438</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06596501530748573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05340784173373509</v>
+        <v>0.05234185895267624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08193662646102555</v>
+        <v>0.08063309434538263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -1412,19 +1412,19 @@
         <v>131481</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111212</v>
+        <v>111082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154308</v>
+        <v>152775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1322826506578806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1118897103523525</v>
+        <v>0.1117597023325979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1552492829923462</v>
+        <v>0.1537064561468291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -1433,19 +1433,19 @@
         <v>205467</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176854</v>
+        <v>179869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>233137</v>
+        <v>231694</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0971229773129717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08359787950046225</v>
+        <v>0.08502315862596276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1102025150260725</v>
+        <v>0.1095201812827303</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>20600</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13061</v>
+        <v>13644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31042</v>
+        <v>32005</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01836687194044303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01164481950923816</v>
+        <v>0.01216500150265646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02767679891998006</v>
+        <v>0.02853523075026857</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -1483,19 +1483,19 @@
         <v>36371</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25622</v>
+        <v>25795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49082</v>
+        <v>51129</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03659313610184284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02577772183347277</v>
+        <v>0.02595246307381664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04938168553514832</v>
+        <v>0.05144098775696666</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1504,19 +1504,19 @@
         <v>56972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43247</v>
+        <v>43911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>73288</v>
+        <v>73188</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02693010317211065</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02044281781659587</v>
+        <v>0.02075658729113647</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03464282473016252</v>
+        <v>0.03459538060172562</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>418638</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>407541</v>
+        <v>406565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>427405</v>
+        <v>427459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9361309175740973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9113166052810081</v>
+        <v>0.9091338289765818</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9557354532907985</v>
+        <v>0.9558569151757719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -1629,19 +1629,19 @@
         <v>301992</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>289501</v>
+        <v>288132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>313036</v>
+        <v>312149</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.88519642940266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8485820892486184</v>
+        <v>0.8445711128293293</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9175691516734469</v>
+        <v>0.9149682946527955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>707</v>
@@ -1650,19 +1650,19 @@
         <v>720630</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>704678</v>
+        <v>705093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>735871</v>
+        <v>734773</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9140892561228193</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8938549526823789</v>
+        <v>0.8943814238249834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9334218923187056</v>
+        <v>0.9320292483873429</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>19624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12451</v>
+        <v>12461</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29194</v>
+        <v>29592</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0438824081903617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02784226540816399</v>
+        <v>0.02786509079895088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06528275179800505</v>
+        <v>0.06617254355538697</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1700,19 +1700,19 @@
         <v>28087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18782</v>
+        <v>19659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39068</v>
+        <v>39463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08232747730316514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05505474459494126</v>
+        <v>0.05762526098413549</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1145153811523792</v>
+        <v>0.1156745658344001</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1721,19 +1721,19 @@
         <v>47711</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35365</v>
+        <v>36716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60883</v>
+        <v>63542</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06051933197770212</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04485897258489236</v>
+        <v>0.04657246927907261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07722753772230549</v>
+        <v>0.08060047770406828</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>8938</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4440</v>
+        <v>4462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17843</v>
+        <v>18062</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01998667423554105</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009929383777455289</v>
+        <v>0.009977787617532914</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03989944159490366</v>
+        <v>0.04039004114605188</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>11079</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5792</v>
+        <v>5414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18700</v>
+        <v>19075</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03247609329417486</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01697884199466213</v>
+        <v>0.01586977253448524</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05481435161773051</v>
+        <v>0.05591217674956251</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1792,19 +1792,19 @@
         <v>20018</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12077</v>
+        <v>12865</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29011</v>
+        <v>31153</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02539141189947852</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01531950714436875</v>
+        <v>0.01631849461427842</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03679976585830883</v>
+        <v>0.03951597072536707</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2876138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2840151</v>
+        <v>2840845</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2908447</v>
+        <v>2911674</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8902166986573454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8790782233151657</v>
+        <v>0.8792928240714043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9002170087914906</v>
+        <v>0.9012156062171593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2556</v>
@@ -1917,19 +1917,19 @@
         <v>2611182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2562042</v>
+        <v>2565304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2654541</v>
+        <v>2659845</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7876941458432298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7728706851687936</v>
+        <v>0.773854472728338</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8007739690083777</v>
+        <v>0.8023739642841939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5359</v>
@@ -1938,19 +1938,19 @@
         <v>5487320</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5423487</v>
+        <v>5429851</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5546328</v>
+        <v>5545964</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8382965110840221</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8285448672052149</v>
+        <v>0.8295170915263176</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8473112441333274</v>
+        <v>0.8472555567245569</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>260935</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>234224</v>
+        <v>230535</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>292071</v>
+        <v>292978</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08076401837137222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0724966956451482</v>
+        <v>0.07135487561537693</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09040132982213002</v>
+        <v>0.09068201514136094</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>509</v>
@@ -1988,19 +1988,19 @@
         <v>525923</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>485450</v>
+        <v>485295</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>570821</v>
+        <v>568133</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.158651058307316</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.146441641352742</v>
+        <v>0.1463950082059246</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1721948482513338</v>
+        <v>0.171384234187264</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>778</v>
@@ -2009,19 +2009,19 @@
         <v>786858</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>735547</v>
+        <v>738756</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>841841</v>
+        <v>842591</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1202081173720786</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1123693479878737</v>
+        <v>0.1128595618316096</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1286079178302596</v>
+        <v>0.1287223956721191</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>93756</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76478</v>
+        <v>78164</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113933</v>
+        <v>114503</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02901928297128235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02367138246859807</v>
+        <v>0.02419305792410294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03526446581081959</v>
+        <v>0.03544069472140871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -2059,19 +2059,19 @@
         <v>177864</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>153024</v>
+        <v>153968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203021</v>
+        <v>208141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05365479584945414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04616142488144846</v>
+        <v>0.04644621040176213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06124375971127588</v>
+        <v>0.06278812187589557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -2080,19 +2080,19 @@
         <v>271620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>242616</v>
+        <v>239474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>301945</v>
+        <v>303296</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04149537154389926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03706433385281085</v>
+        <v>0.0365843686602013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04612813409383543</v>
+        <v>0.04633448370180774</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>870859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>842731</v>
+        <v>845312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>894750</v>
+        <v>893279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8342084194011237</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8072636745610551</v>
+        <v>0.8097360104361735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8570933597092875</v>
+        <v>0.8556849729254519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>734</v>
@@ -2445,19 +2445,19 @@
         <v>799420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>766379</v>
+        <v>768707</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>828464</v>
+        <v>829581</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.713813441309365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6843109113619135</v>
+        <v>0.6863893825570216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7397476065583476</v>
+        <v>0.7407452186283584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1554</v>
@@ -2466,19 +2466,19 @@
         <v>1670279</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1632735</v>
+        <v>1627257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1712819</v>
+        <v>1709433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7718968311242506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7545465946080484</v>
+        <v>0.7520147726043159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7915562039694556</v>
+        <v>0.7899915489466298</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>107286</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86664</v>
+        <v>87393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129091</v>
+        <v>127517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1027702965676299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08301699268632584</v>
+        <v>0.0837154540189364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1236584517186858</v>
+        <v>0.1221500747421312</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -2516,19 +2516,19 @@
         <v>191477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166687</v>
+        <v>168007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220742</v>
+        <v>218387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.170972691527209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1488370654657173</v>
+        <v>0.1500157553228861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1971034024313573</v>
+        <v>0.1950006253737587</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>275</v>
@@ -2537,19 +2537,19 @@
         <v>298763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>269162</v>
+        <v>268454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>331214</v>
+        <v>335045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1380691073783184</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1243895003418411</v>
+        <v>0.1240623111188291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1530662849827551</v>
+        <v>0.1548366445915609</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>65790</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51409</v>
+        <v>50916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84197</v>
+        <v>83408</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06302128403124649</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0492452874061086</v>
+        <v>0.04877321017333298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08065359568711049</v>
+        <v>0.07989780754751427</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -2587,19 +2587,19 @@
         <v>129031</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106552</v>
+        <v>109157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151174</v>
+        <v>153910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.115213867163426</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09514195478190288</v>
+        <v>0.09746770038992342</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1349857511926358</v>
+        <v>0.1374284132170146</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>180</v>
@@ -2608,19 +2608,19 @@
         <v>194821</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169537</v>
+        <v>167764</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>223697</v>
+        <v>226001</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.090034061497431</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07834904212235294</v>
+        <v>0.07752986419825067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1033787271135286</v>
+        <v>0.104443267881393</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>837075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>811993</v>
+        <v>809609</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>858863</v>
+        <v>857409</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8567169301539088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8310468978926699</v>
+        <v>0.8286065654759756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8790164224453061</v>
+        <v>0.8775282525390251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>754</v>
@@ -2733,19 +2733,19 @@
         <v>805464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>774239</v>
+        <v>773691</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>834034</v>
+        <v>835109</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7360797347206657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7075448719151725</v>
+        <v>0.7070438676656354</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7621881883046197</v>
+        <v>0.7631706440293217</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1553</v>
@@ -2754,19 +2754,19 @@
         <v>1642539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1602381</v>
+        <v>1606262</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1684386</v>
+        <v>1681145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7929857030174616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7735980708574348</v>
+        <v>0.7754720522952083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8131885434939222</v>
+        <v>0.8116236884094331</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>94722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75749</v>
+        <v>76596</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116224</v>
+        <v>117357</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09694449220212195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07752621215233818</v>
+        <v>0.07839372977502754</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1189510334955648</v>
+        <v>0.120111249701765</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>179</v>
@@ -2804,19 +2804,19 @@
         <v>194186</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170392</v>
+        <v>169753</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>221955</v>
+        <v>223444</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1774587305630196</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1557141361099849</v>
+        <v>0.1551303375794522</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2028351332017362</v>
+        <v>0.2041958182298101</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>265</v>
@@ -2825,19 +2825,19 @@
         <v>288908</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>253157</v>
+        <v>257273</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>319973</v>
+        <v>321445</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1394792278138753</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1222193528870017</v>
+        <v>0.1242065862109612</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1544765816592737</v>
+        <v>0.1551873009385819</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>45276</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32651</v>
+        <v>32368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61721</v>
+        <v>62837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04633857764396927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03341694322409289</v>
+        <v>0.03312776607600593</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06316927348989805</v>
+        <v>0.06431109722776032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -2875,19 +2875,19 @@
         <v>94612</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77235</v>
+        <v>77373</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115915</v>
+        <v>116714</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08646153471631468</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07058161807915551</v>
+        <v>0.07070788930692776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1059294524199704</v>
+        <v>0.1066602602480756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -2896,19 +2896,19 @@
         <v>139888</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114421</v>
+        <v>117228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164858</v>
+        <v>164518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06753506916866303</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05524024262348458</v>
+        <v>0.05659523925911222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07959013367547726</v>
+        <v>0.07942622605614216</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>756720</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>734174</v>
+        <v>735366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>778175</v>
+        <v>776893</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8549397031171834</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8294678229642827</v>
+        <v>0.8308140337452123</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8791791088711526</v>
+        <v>0.8777309694272089</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>648</v>
@@ -3021,19 +3021,19 @@
         <v>688036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>663219</v>
+        <v>663558</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>711438</v>
+        <v>713637</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7856119082937617</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7572751839666032</v>
+        <v>0.7576628145493738</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8123328054248108</v>
+        <v>0.8148435688574099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1361</v>
@@ -3042,19 +3042,19 @@
         <v>1444756</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1406861</v>
+        <v>1406829</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1476782</v>
+        <v>1476289</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.820459258579476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7989395781238912</v>
+        <v>0.7989212752988136</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8386463322938101</v>
+        <v>0.8383665730983664</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>94212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76148</v>
+        <v>74970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114477</v>
+        <v>113730</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1064399411202688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08603174900346061</v>
+        <v>0.08470083135301804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1293360093478658</v>
+        <v>0.1284922803059499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -3092,19 +3092,19 @@
         <v>131708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112341</v>
+        <v>111275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154215</v>
+        <v>152996</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1503868137529728</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1282725100774801</v>
+        <v>0.1270557521414019</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1760858623070528</v>
+        <v>0.1746934042808203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -3113,19 +3113,19 @@
         <v>225920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>197162</v>
+        <v>198273</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>257149</v>
+        <v>257048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1282970867034673</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1119658609587761</v>
+        <v>0.1125966951344959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1460316065936884</v>
+        <v>0.145974431067178</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>34183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23507</v>
+        <v>23448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45986</v>
+        <v>47573</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03862035576254776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02655844588560204</v>
+        <v>0.02649192035893919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05195485090365876</v>
+        <v>0.05374735064208944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -3163,19 +3163,19 @@
         <v>56052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43252</v>
+        <v>41284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73086</v>
+        <v>72682</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06400127795326545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04938632725444952</v>
+        <v>0.04713930252245394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08345065697621655</v>
+        <v>0.08299015290392818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -3184,19 +3184,19 @@
         <v>90236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>71123</v>
+        <v>73860</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>111060</v>
+        <v>112882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05124365471705669</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04039006329270618</v>
+        <v>0.04194400532855863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06306974097440221</v>
+        <v>0.06410452262816572</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>445347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>427649</v>
+        <v>428377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>459273</v>
+        <v>458286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8853417994748047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8501573772763975</v>
+        <v>0.8516048940336712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9130263173399801</v>
+        <v>0.9110638830147335</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>326</v>
@@ -3309,19 +3309,19 @@
         <v>357700</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>340065</v>
+        <v>338700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>375397</v>
+        <v>375138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7900843325216279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7511335286238937</v>
+        <v>0.7481174869598783</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8291746017320265</v>
+        <v>0.8286028917177286</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>736</v>
@@ -3330,19 +3330,19 @@
         <v>803046</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>777731</v>
+        <v>778931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>824447</v>
+        <v>826821</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8402190447268996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8137323305648571</v>
+        <v>0.8149878503412553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8626101957192527</v>
+        <v>0.8650942698233197</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>36173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25332</v>
+        <v>25569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51678</v>
+        <v>49059</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0719110981513473</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05035910427694803</v>
+        <v>0.05083102937167439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1027352105880242</v>
+        <v>0.09752869030271229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3380,19 +3380,19 @@
         <v>56485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43444</v>
+        <v>42449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71172</v>
+        <v>72970</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1247628470001348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09595769232213638</v>
+        <v>0.09376046542856081</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1572039904478877</v>
+        <v>0.1611746056833182</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -3401,19 +3401,19 @@
         <v>92657</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75555</v>
+        <v>73932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>114491</v>
+        <v>112011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09694657912287005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07905278847493323</v>
+        <v>0.07735398680124835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1197907965617</v>
+        <v>0.1171958841828239</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>21503</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12145</v>
+        <v>13307</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34068</v>
+        <v>34346</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04274710237384798</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02414338174935417</v>
+        <v>0.02645467902060574</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06772678762037226</v>
+        <v>0.06827881156759842</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -3451,19 +3451,19 @@
         <v>38552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27280</v>
+        <v>26925</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52497</v>
+        <v>51832</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08515282047823729</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06025550295213749</v>
+        <v>0.05947149851693298</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1159558414910567</v>
+        <v>0.1144865940102909</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -3472,19 +3472,19 @@
         <v>60054</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45479</v>
+        <v>45576</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75796</v>
+        <v>79490</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06283437615023035</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04758433937478918</v>
+        <v>0.04768609438380629</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07930451598059718</v>
+        <v>0.08316956624056843</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2910001</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2865912</v>
+        <v>2866942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2950410</v>
+        <v>2955154</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8535866703167407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8406541262615141</v>
+        <v>0.8409562832495666</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8654397845063279</v>
+        <v>0.8668315318278413</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2462</v>
@@ -3597,19 +3597,19 @@
         <v>2650619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2595510</v>
+        <v>2592751</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2703112</v>
+        <v>2697030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7481871532131628</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.732631583031281</v>
+        <v>0.7318528721405995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7630043797547607</v>
+        <v>0.7612875345360468</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5204</v>
@@ -3618,19 +3618,19 @@
         <v>5560620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5490682</v>
+        <v>5491439</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5631977</v>
+        <v>5622418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7998743130672484</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7898139648927988</v>
+        <v>0.7899228374021157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8101387422485115</v>
+        <v>0.8087637265942546</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>332392</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>299532</v>
+        <v>292534</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>370932</v>
+        <v>367806</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09750004559162265</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08786133069282193</v>
+        <v>0.08580852471424505</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.108805039563345</v>
+        <v>0.1078879044108758</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>530</v>
@@ -3668,19 +3668,19 @@
         <v>573856</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>529392</v>
+        <v>529378</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>621906</v>
+        <v>617648</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1619817417505979</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1494308776359876</v>
+        <v>0.1494270501471676</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1755447365565848</v>
+        <v>0.1743427600861497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>832</v>
@@ -3689,19 +3689,19 @@
         <v>906248</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>846825</v>
+        <v>850957</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>963548</v>
+        <v>962657</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1303603849491596</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1218125988554916</v>
+        <v>0.1224069477059772</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1386027847480533</v>
+        <v>0.1384745979026229</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>166752</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>141923</v>
+        <v>142082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>195495</v>
+        <v>193748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04891328409163664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04163001865534208</v>
+        <v>0.04167668668094011</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05734430061324215</v>
+        <v>0.05683176548838918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>292</v>
@@ -3739,19 +3739,19 @@
         <v>318247</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>285193</v>
+        <v>285737</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>352591</v>
+        <v>353380</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08983110503623937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08050103066052666</v>
+        <v>0.080654773303331</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09952551270556768</v>
+        <v>0.09974811601211189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>441</v>
@@ -3760,19 +3760,19 @@
         <v>484999</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>443949</v>
+        <v>441438</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>530931</v>
+        <v>530019</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06976530198359197</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06386046253597939</v>
+        <v>0.06349916872756632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07637238100188248</v>
+        <v>0.07624127856589243</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>942672</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>918786</v>
+        <v>916860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>966166</v>
+        <v>965553</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8357044504180452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8145291993311932</v>
+        <v>0.812820995516583</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.856532621697728</v>
+        <v>0.8559892354231249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>894</v>
@@ -4125,19 +4125,19 @@
         <v>920340</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>884250</v>
+        <v>886917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>951524</v>
+        <v>954825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7306827656162158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7020304846168046</v>
+        <v>0.70414760425096</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7554411771526561</v>
+        <v>0.7580619917952431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1779</v>
@@ -4146,19 +4146,19 @@
         <v>1863012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1818326</v>
+        <v>1822079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1903031</v>
+        <v>1901725</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7803000605925035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7615838820748425</v>
+        <v>0.7631557165579981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7970617378833463</v>
+        <v>0.7965145216784068</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>122511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104054</v>
+        <v>102859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144983</v>
+        <v>144642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1086096135813369</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09224630625385345</v>
+        <v>0.09118713143558216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1285317893109298</v>
+        <v>0.1282294210606316</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -4196,19 +4196,19 @@
         <v>196137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172480</v>
+        <v>167266</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>225617</v>
+        <v>221983</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1557181790762481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1369362338572982</v>
+        <v>0.1327971677041598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1791233663118386</v>
+        <v>0.1762387561784191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>290</v>
@@ -4217,19 +4217,19 @@
         <v>318648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>286936</v>
+        <v>285422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>355983</v>
+        <v>356191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1334618270239903</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1201798472253739</v>
+        <v>0.1195457425885576</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1490993169745261</v>
+        <v>0.1491864557953938</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>62814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48062</v>
+        <v>49141</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79512</v>
+        <v>79701</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05568593600061788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04260855556730185</v>
+        <v>0.04356501278570644</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07048980658359148</v>
+        <v>0.07065696440645497</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>121</v>
@@ -4267,19 +4267,19 @@
         <v>143085</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>119604</v>
+        <v>121192</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>169439</v>
+        <v>168669</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1135990553075361</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09495673166773885</v>
+        <v>0.09621785562457409</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1345221551086406</v>
+        <v>0.1339113024872153</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>185</v>
@@ -4288,19 +4288,19 @@
         <v>205898</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177855</v>
+        <v>181596</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234763</v>
+        <v>239061</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08623811238350633</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07449258028067694</v>
+        <v>0.07605938101271278</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0983275811974855</v>
+        <v>0.1001276974647288</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>787069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>766058</v>
+        <v>764585</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>806914</v>
+        <v>806616</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8660292190755077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8429108022684869</v>
+        <v>0.8412900803636461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8878650390119985</v>
+        <v>0.8875377312403849</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>758</v>
@@ -4413,19 +4413,19 @@
         <v>787403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>761564</v>
+        <v>758954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>814737</v>
+        <v>815787</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7823370444241289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7566644030408807</v>
+        <v>0.7540713674925648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8094951158417741</v>
+        <v>0.8105390961279089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1514</v>
@@ -4434,19 +4434,19 @@
         <v>1574472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1539597</v>
+        <v>1541484</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1608446</v>
+        <v>1609579</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8220496320723456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8038413614502224</v>
+        <v>0.8048264410009865</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8397878865767255</v>
+        <v>0.840379449509894</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>85353</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69207</v>
+        <v>69571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>103590</v>
+        <v>105351</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0939152403545345</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07615038905631548</v>
+        <v>0.07655052794677325</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1139822521679072</v>
+        <v>0.1159198234773105</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>129</v>
@@ -4484,19 +4484,19 @@
         <v>145025</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>123179</v>
+        <v>122749</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>168209</v>
+        <v>169886</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1440922688474916</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1223869987844352</v>
+        <v>0.1219591003068844</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1671272307733964</v>
+        <v>0.1687931348930512</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>217</v>
@@ -4505,19 +4505,19 @@
         <v>230378</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>200186</v>
+        <v>201552</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>256705</v>
+        <v>260632</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1202828786595309</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1045195221160875</v>
+        <v>0.1052324031518077</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1340284925989571</v>
+        <v>0.1360787543613224</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>36403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25705</v>
+        <v>26253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50174</v>
+        <v>51010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0400555405699578</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02828340690979214</v>
+        <v>0.02888630368032257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0552071751134154</v>
+        <v>0.05612774008418981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -4555,19 +4555,19 @@
         <v>74047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56656</v>
+        <v>58002</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92416</v>
+        <v>95281</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07357068672837958</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05629138733016693</v>
+        <v>0.05762841764683673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09182154423960666</v>
+        <v>0.0946675635452477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -4576,19 +4576,19 @@
         <v>110451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90424</v>
+        <v>90371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134943</v>
+        <v>133309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05766748926812343</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04721146708531702</v>
+        <v>0.04718358963164063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07045543627326288</v>
+        <v>0.06960203300847669</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>727935</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>709122</v>
+        <v>709452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>744384</v>
+        <v>745580</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8836749689446797</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8608364471589128</v>
+        <v>0.8612379281237647</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.90364314125616</v>
+        <v>0.9050951444075769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>584</v>
@@ -4701,19 +4701,19 @@
         <v>605120</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>579435</v>
+        <v>577957</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>630161</v>
+        <v>627575</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7847908750181405</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7514797704507543</v>
+        <v>0.7495623405113361</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8172666538316861</v>
+        <v>0.8139132578794224</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1273</v>
@@ -4722,19 +4722,19 @@
         <v>1333055</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1300895</v>
+        <v>1299220</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1361133</v>
+        <v>1363735</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8358667293474723</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.815701476407004</v>
+        <v>0.8146506592632683</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8534726034525054</v>
+        <v>0.8551041295601878</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>71207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58385</v>
+        <v>55318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89328</v>
+        <v>88076</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08644155145386793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07087582841819094</v>
+        <v>0.0671532100327034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.108439474252924</v>
+        <v>0.1069197480774118</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -4772,19 +4772,19 @@
         <v>111128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90663</v>
+        <v>92909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134156</v>
+        <v>133499</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1441236870854878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1175822996151718</v>
+        <v>0.1204950201579425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1739889838112543</v>
+        <v>0.1731374664710032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -4793,19 +4793,19 @@
         <v>182335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>157435</v>
+        <v>157661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207797</v>
+        <v>209863</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1143295691445976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09871665463300951</v>
+        <v>0.09885831971913311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1302952315354636</v>
+        <v>0.1315906821891782</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>24617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16483</v>
+        <v>16324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37276</v>
+        <v>35152</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02988347960145236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02000890633967754</v>
+        <v>0.01981589534605751</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04525068651210869</v>
+        <v>0.04267273280470451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -4843,19 +4843,19 @@
         <v>54811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40847</v>
+        <v>40586</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71324</v>
+        <v>73034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07108543789637173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05297561353723956</v>
+        <v>0.05263670402780963</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09250171923686162</v>
+        <v>0.09471906272971915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>71</v>
@@ -4864,19 +4864,19 @@
         <v>79428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62606</v>
+        <v>60985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100042</v>
+        <v>99149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04980370150793016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03925590937949838</v>
+        <v>0.03823944919983011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06272944046831617</v>
+        <v>0.0621696352406766</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>446005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>429992</v>
+        <v>429412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>460266</v>
+        <v>460211</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8802140310476428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8486106082638475</v>
+        <v>0.8474661494773971</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9083589166360484</v>
+        <v>0.908250538154871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>394</v>
@@ -4989,19 +4989,19 @@
         <v>418772</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>401579</v>
+        <v>400954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>435561</v>
+        <v>433696</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8551629178661144</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8200538550250369</v>
+        <v>0.8187779003804626</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8894489589388024</v>
+        <v>0.8856401233397867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>808</v>
@@ -5010,19 +5010,19 @@
         <v>864776</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>841631</v>
+        <v>842576</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>888235</v>
+        <v>888283</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8679022206891089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8446732774923519</v>
+        <v>0.8456220447748334</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8914464311643072</v>
+        <v>0.8914941602206397</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>40016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28800</v>
+        <v>28322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55236</v>
+        <v>53891</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07897366976684242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05683778224621787</v>
+        <v>0.05589401874555217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1090107867876909</v>
+        <v>0.1063561883134671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -5060,19 +5060,19 @@
         <v>43485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31176</v>
+        <v>31862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58907</v>
+        <v>58509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.088798822865972</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06366277596821032</v>
+        <v>0.06506558711946564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.120291868637859</v>
+        <v>0.1194792249001125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>75</v>
@@ -5081,19 +5081,19 @@
         <v>83501</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65193</v>
+        <v>65199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>102174</v>
+        <v>102241</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08380241413534577</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06542909048188499</v>
+        <v>0.06543479966435334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1025436181820919</v>
+        <v>0.1026105844156663</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>20680</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13166</v>
+        <v>12750</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30813</v>
+        <v>29988</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04081229918551472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02598466181383249</v>
+        <v>0.02516310342416734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06081070540439815</v>
+        <v>0.05918327339281263</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -5131,19 +5131,19 @@
         <v>27442</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17820</v>
+        <v>17823</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41554</v>
+        <v>40570</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05603825926791355</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03639051524826379</v>
+        <v>0.03639633722417546</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08485678475561176</v>
+        <v>0.08284657923108298</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>43</v>
@@ -5152,19 +5152,19 @@
         <v>48121</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34984</v>
+        <v>34924</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>64534</v>
+        <v>62857</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04829536517554529</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03511035965723685</v>
+        <v>0.0350504882835998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06476768148311995</v>
+        <v>0.06308429828665393</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2903682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2865324</v>
+        <v>2862658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2942957</v>
+        <v>2943695</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8623220913150299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.850930721040167</v>
+        <v>0.8501389527028778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8739859594862889</v>
+        <v>0.8742050468147852</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2630</v>
@@ -5277,19 +5277,19 @@
         <v>2731633</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2676818</v>
+        <v>2679177</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2782872</v>
+        <v>2778207</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7745376051495457</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7589950732644144</v>
+        <v>0.75966409190852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.789065996074734</v>
+        <v>0.7877435057822458</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5374</v>
@@ -5298,19 +5298,19 @@
         <v>5635315</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5566426</v>
+        <v>5566230</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5703720</v>
+        <v>5698428</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8174143013033049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.807421675783367</v>
+        <v>0.8073932630906865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8273365363313372</v>
+        <v>0.8265689277871793</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>319087</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>287059</v>
+        <v>284804</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>351737</v>
+        <v>354459</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09476096200488131</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08524934711687056</v>
+        <v>0.08457981337934212</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1044572458734275</v>
+        <v>0.1052655116369891</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>439</v>
@@ -5348,19 +5348,19 @@
         <v>495774</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>454080</v>
+        <v>455684</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>538291</v>
+        <v>542035</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.140573689401759</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.128751642292922</v>
+        <v>0.1292063538732424</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1526290296248071</v>
+        <v>0.153690598058687</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>753</v>
@@ -5369,19 +5369,19 @@
         <v>814861</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>759072</v>
+        <v>760338</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>870375</v>
+        <v>875234</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1181973165553316</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.110104933360219</v>
+        <v>0.1102886773785557</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1262497047056555</v>
+        <v>0.1269544864700245</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>144513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122655</v>
+        <v>121530</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>170941</v>
+        <v>167529</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04291694668008875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03642539959178161</v>
+        <v>0.03609153202258737</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05076527009910006</v>
+        <v>0.04975200194547033</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>253</v>
@@ -5419,19 +5419,19 @@
         <v>299385</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264713</v>
+        <v>264857</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>336766</v>
+        <v>336132</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08488870544869534</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07505765836877051</v>
+        <v>0.07509856152899824</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09548803343354262</v>
+        <v>0.09530804682799079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>400</v>
@@ -5440,19 +5440,19 @@
         <v>443898</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>397893</v>
+        <v>402244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>490202</v>
+        <v>488271</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06438838214136351</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05771520639551041</v>
+        <v>0.05834630213393132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07110485110999576</v>
+        <v>0.07082468763447987</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>374935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>353408</v>
+        <v>353671</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393356</v>
+        <v>394361</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7517660597255954</v>
+        <v>0.7517660597255953</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7086022241755471</v>
+        <v>0.7091310010928025</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7887012870223249</v>
+        <v>0.7907171076094227</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>521</v>
@@ -5805,19 +5805,19 @@
         <v>418454</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>397838</v>
+        <v>398603</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>437014</v>
+        <v>437811</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6710516701123521</v>
+        <v>0.6710516701123522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6379909936197066</v>
+        <v>0.6392173495722486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7008138938664401</v>
+        <v>0.7020927537149915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>843</v>
@@ -5826,19 +5826,19 @@
         <v>793390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>766686</v>
+        <v>763791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>822837</v>
+        <v>822189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7069197428848925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6831261368353514</v>
+        <v>0.6805466145080656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7331574721837039</v>
+        <v>0.7325802300520553</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>83330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66823</v>
+        <v>67612</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102458</v>
+        <v>103978</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1670818026082741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1339840073809223</v>
+        <v>0.1355661894639513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2054346183100301</v>
+        <v>0.2084819121717943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -5876,19 +5876,19 @@
         <v>112894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98241</v>
+        <v>97992</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129417</v>
+        <v>128609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1810409839850771</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.157543069489906</v>
+        <v>0.1571444747117501</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2075391389663523</v>
+        <v>0.2062436034207463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>269</v>
@@ -5897,19 +5897,19 @@
         <v>196224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>173065</v>
+        <v>173412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>220058</v>
+        <v>218366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1748377662457447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1542030707518544</v>
+        <v>0.1545122431903818</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1960740169102327</v>
+        <v>0.1945668120634198</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>40474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31076</v>
+        <v>29820</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53525</v>
+        <v>53829</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08115213766613055</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06230899520406778</v>
+        <v>0.05979037164483861</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1073215377707192</v>
+        <v>0.1079300082752783</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>156</v>
@@ -5947,19 +5947,19 @@
         <v>92232</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78681</v>
+        <v>80240</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>108687</v>
+        <v>107876</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1479073459025706</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1261760790568659</v>
+        <v>0.1286763507057456</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1742949934888566</v>
+        <v>0.1729951325719455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>204</v>
@@ -5968,19 +5968,19 @@
         <v>132706</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114853</v>
+        <v>113407</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>152130</v>
+        <v>150395</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1182424908693629</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1023349390625598</v>
+        <v>0.1010471397786075</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1355498556786231</v>
+        <v>0.1340033942275522</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>801253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>775044</v>
+        <v>779982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>823569</v>
+        <v>823671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.834519665685641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8072221934255774</v>
+        <v>0.8123648342482364</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.857762135505263</v>
+        <v>0.8578683688757751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1114</v>
@@ -6093,19 +6093,19 @@
         <v>830677</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>805409</v>
+        <v>805733</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>854738</v>
+        <v>852685</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7444346164646845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7217901980947025</v>
+        <v>0.7220807239905714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7659978839882255</v>
+        <v>0.7641583737347009</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1839</v>
@@ -6114,19 +6114,19 @@
         <v>1631930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1599669</v>
+        <v>1598593</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1666174</v>
+        <v>1666687</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7860986548155845</v>
+        <v>0.7860986548155843</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.770558531046022</v>
+        <v>0.7700405559301141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8025941601540939</v>
+        <v>0.8028410236190654</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>102769</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>86003</v>
+        <v>85419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123179</v>
+        <v>121201</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1070362697807566</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0895740105999156</v>
+        <v>0.08896509173418624</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1282934338536972</v>
+        <v>0.1262334335014585</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>302</v>
@@ -6164,19 +6164,19 @@
         <v>178419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>159670</v>
+        <v>159689</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>199331</v>
+        <v>198559</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1598955819675006</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1430927873592343</v>
+        <v>0.1431102181839428</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1786359080130618</v>
+        <v>0.1779441604750399</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>419</v>
@@ -6185,19 +6185,19 @@
         <v>281189</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>254016</v>
+        <v>250353</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>310504</v>
+        <v>308988</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.135448324301593</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1223592803913304</v>
+        <v>0.1205945234095239</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1495692522236187</v>
+        <v>0.1488390868861672</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>56114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43306</v>
+        <v>42881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74750</v>
+        <v>74333</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05844406453360258</v>
+        <v>0.0584440645336026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0451041704995287</v>
+        <v>0.04466120822058101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07785311734932671</v>
+        <v>0.07741913396319505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -6235,19 +6235,19 @@
         <v>106753</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93383</v>
+        <v>92586</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>124969</v>
+        <v>124744</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09566980156781481</v>
+        <v>0.09566980156781482</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08368754979752575</v>
+        <v>0.08297380551555283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1119943285566269</v>
+        <v>0.1117925118800283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>259</v>
@@ -6256,19 +6256,19 @@
         <v>162867</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143450</v>
+        <v>140956</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187075</v>
+        <v>184480</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07845302088282262</v>
+        <v>0.0784530208828226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06909976964887093</v>
+        <v>0.06789845537767791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09011363083727589</v>
+        <v>0.08886384860324367</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>930802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>909828</v>
+        <v>908163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>949013</v>
+        <v>948324</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8894609033099369</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8694180382519549</v>
+        <v>0.867827330926436</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9068626763541286</v>
+        <v>0.9062045945947624</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1191</v>
@@ -6381,19 +6381,19 @@
         <v>862035</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>842791</v>
+        <v>841846</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>879966</v>
+        <v>880860</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8228339124187621</v>
+        <v>0.8228339124187622</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8044647929450098</v>
+        <v>0.8035630005967328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8399494451387347</v>
+        <v>0.8408028442670126</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2083</v>
@@ -6402,19 +6402,19 @@
         <v>1792838</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1763255</v>
+        <v>1765824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1820226</v>
+        <v>1820986</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8561289169627506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8420024635584153</v>
+        <v>0.8432294326402187</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8692074494181861</v>
+        <v>0.8695703667416862</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>82561</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66417</v>
+        <v>68014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101808</v>
+        <v>103480</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07889404839238311</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06346728095533488</v>
+        <v>0.06499345336324072</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09728576867158556</v>
+        <v>0.09888401428980922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -6452,19 +6452,19 @@
         <v>130828</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116406</v>
+        <v>115248</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149251</v>
+        <v>146887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1248787309221643</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1111119379239215</v>
+        <v>0.1100066919269053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1424633207418039</v>
+        <v>0.1402074180812901</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>328</v>
@@ -6473,19 +6473,19 @@
         <v>213389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190728</v>
+        <v>191185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>239960</v>
+        <v>239394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1018991517260441</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09107799078573385</v>
+        <v>0.09129596332541515</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1145875419734754</v>
+        <v>0.1143172991661272</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>33116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23105</v>
+        <v>24475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46531</v>
+        <v>45194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03164504829767996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02207892909596266</v>
+        <v>0.02338822661224685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04446451499206418</v>
+        <v>0.04318689270113783</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -6523,19 +6523,19 @@
         <v>54778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44382</v>
+        <v>43953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67587</v>
+        <v>67293</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05228735665907357</v>
+        <v>0.05228735665907358</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04236338121612083</v>
+        <v>0.04195415161854398</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06451307499084886</v>
+        <v>0.06423265558443457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -6544,19 +6544,19 @@
         <v>87894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73146</v>
+        <v>73377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>105616</v>
+        <v>104885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04197193131120532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03492931731694694</v>
+        <v>0.03503940984441545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05043442921164597</v>
+        <v>0.05008561678519097</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>869641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>849597</v>
+        <v>849882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>889204</v>
+        <v>886034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8910908934487579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8705515758253332</v>
+        <v>0.8708437424628311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9111361311268549</v>
+        <v>0.9078877981401628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1065</v>
@@ -6669,19 +6669,19 @@
         <v>764608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>745541</v>
+        <v>747108</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>782909</v>
+        <v>781017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8404977874018611</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8195383499067258</v>
+        <v>0.821260026539136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8606148237493473</v>
+        <v>0.8585353179211688</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1881</v>
@@ -6690,19 +6690,19 @@
         <v>1634250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1608448</v>
+        <v>1608137</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1658743</v>
+        <v>1658617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.866682713358264</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8529994758822638</v>
+        <v>0.8528341979983687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8796719147058788</v>
+        <v>0.8796052943836272</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>81686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65330</v>
+        <v>66491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99868</v>
+        <v>98918</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08370045286785785</v>
+        <v>0.08370045286785784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06694164066609046</v>
+        <v>0.06813085796658465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1023309995561047</v>
+        <v>0.1013581042052645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -6740,19 +6740,19 @@
         <v>104766</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>89220</v>
+        <v>91488</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120410</v>
+        <v>119714</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1151639165721981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09807493249339282</v>
+        <v>0.1005686462466657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1323610443108741</v>
+        <v>0.1315962985072529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -6761,19 +6761,19 @@
         <v>186451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164746</v>
+        <v>165069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>209049</v>
+        <v>210643</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09887971242259637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08736890895747365</v>
+        <v>0.08754010458999123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1108639812016836</v>
+        <v>0.111709392572828</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>24602</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16719</v>
+        <v>16979</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34949</v>
+        <v>34982</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02520865368338428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01713163516929395</v>
+        <v>0.01739799495227331</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0358109095792824</v>
+        <v>0.03584451214770851</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>66</v>
@@ -6811,19 +6811,19 @@
         <v>40335</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31966</v>
+        <v>31015</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51788</v>
+        <v>51992</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04433829602594075</v>
+        <v>0.04433829602594077</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03513903045988214</v>
+        <v>0.03409318060303434</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05692757640365061</v>
+        <v>0.05715188201911695</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>98</v>
@@ -6832,19 +6832,19 @@
         <v>64937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>52208</v>
+        <v>53559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79431</v>
+        <v>80804</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0344375742191397</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02768709110038773</v>
+        <v>0.02840372396561999</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0421242720556768</v>
+        <v>0.0428524114892945</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2976632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2933228</v>
+        <v>2933229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3016519</v>
+        <v>3013741</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8550384986887025</v>
+        <v>0.8550384986887024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8425706284274956</v>
+        <v>0.8425710716867711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8664961321681973</v>
+        <v>0.8656979982153256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3891</v>
@@ -6957,19 +6957,19 @@
         <v>2875775</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2837832</v>
+        <v>2833955</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2915016</v>
+        <v>2916956</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7779134027472523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7676495703677129</v>
+        <v>0.7666009984324107</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7885283564035035</v>
+        <v>0.7890531469330503</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6646</v>
@@ -6978,19 +6978,19 @@
         <v>5852407</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5798213</v>
+        <v>5793357</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5914367</v>
+        <v>5908714</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8153182494733073</v>
+        <v>0.8153182494733071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8077682948656909</v>
+        <v>0.8070918562456478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8239502121325026</v>
+        <v>0.8231625923304612</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>350346</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>316166</v>
+        <v>314250</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>389152</v>
+        <v>385228</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1006371133138443</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09081880137452547</v>
+        <v>0.09026846185293975</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1117840963645811</v>
+        <v>0.110656926722388</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>911</v>
@@ -7028,19 +7028,19 @@
         <v>526907</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>496959</v>
+        <v>496067</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>561823</v>
+        <v>563174</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1425312704935055</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1344301754227895</v>
+        <v>0.1341890527419933</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1519763483613897</v>
+        <v>0.1523417809435892</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1307</v>
@@ -7049,19 +7049,19 @@
         <v>877253</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>827147</v>
+        <v>832141</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>925235</v>
+        <v>929256</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.122213052293659</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1152325730078436</v>
+        <v>0.115928309786562</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1288976334140511</v>
+        <v>0.1294577721520296</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>154306</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130822</v>
+        <v>134294</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177003</v>
+        <v>181279</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04432438799745329</v>
+        <v>0.04432438799745327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0375786996836972</v>
+        <v>0.03857589801553628</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05084431351883555</v>
+        <v>0.05207233031492681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>505</v>
@@ -7099,19 +7099,19 @@
         <v>294099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>268473</v>
+        <v>268919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>320684</v>
+        <v>321665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07955532675924218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07262334320038302</v>
+        <v>0.07274416741713731</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08674692612561863</v>
+        <v>0.0870122408349038</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>695</v>
@@ -7120,19 +7120,19 @@
         <v>448404</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>413480</v>
+        <v>414161</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>483116</v>
+        <v>483431</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06246869823303378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05760327765367506</v>
+        <v>0.05769817783017248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06730450803084154</v>
+        <v>0.0673484121880978</v>
       </c>
     </row>
     <row r="23">
